--- a/CS Form No. 212 Personal Data Sheet - MSANTILLAN.xlsx
+++ b/CS Form No. 212 Personal Data Sheet - MSANTILLAN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1440" windowWidth="11895" windowHeight="6540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="1440" windowWidth="11895" windowHeight="6540"/>
   </bookViews>
   <sheets>
     <sheet name="C1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="470">
   <si>
     <t>PERSONAL DATA SHEET</t>
   </si>
@@ -1509,6 +1509,9 @@
   </si>
   <si>
     <t>MOBILE APPLICATION DEVELOPMENT MANAGER</t>
+  </si>
+  <si>
+    <t>8/6/2018</t>
   </si>
   <si>
     <t>FRANCIS D. ADELANTE</t>
@@ -9183,8 +9186,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S264"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43:H43"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10098,7 +10101,7 @@
       </c>
       <c r="H37" s="335"/>
       <c r="I37" s="320" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="J37" s="321"/>
       <c r="K37" s="321"/>
@@ -10212,7 +10215,7 @@
       </c>
       <c r="C42" s="148"/>
       <c r="D42" s="482" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E42" s="482"/>
       <c r="F42" s="482"/>
@@ -15079,7 +15082,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A34" zoomScaleNormal="110" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A10" zoomScaleNormal="110" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
@@ -15838,7 +15841,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A34" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:D19"/>
     </sheetView>
   </sheetViews>
@@ -16135,7 +16138,7 @@
     </row>
     <row r="19" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="571" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B19" s="572"/>
       <c r="C19" s="572"/>
@@ -16599,8 +16602,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A70" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55:H57"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17493,7 +17496,7 @@
       <c r="D52" s="736"/>
       <c r="E52" s="737"/>
       <c r="F52" s="77" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G52" s="726">
         <v>9088107668</v>
@@ -17514,7 +17517,7 @@
       <c r="D53" s="734"/>
       <c r="E53" s="735"/>
       <c r="F53" s="77" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G53" s="726">
         <v>9273648351</v>
@@ -17528,14 +17531,14 @@
     </row>
     <row r="54" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="729" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B54" s="730"/>
       <c r="C54" s="731"/>
       <c r="D54" s="731"/>
       <c r="E54" s="732"/>
       <c r="F54" s="229" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G54" s="711">
         <v>9988620683</v>
@@ -17652,7 +17655,7 @@
       </c>
       <c r="C61" s="697"/>
       <c r="D61" s="142" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E61" s="81"/>
       <c r="F61" s="636"/>
@@ -17671,7 +17674,7 @@
       </c>
       <c r="C62" s="686"/>
       <c r="D62" s="645" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E62" s="81"/>
       <c r="F62" s="639"/>
@@ -17707,10 +17710,12 @@
       </c>
       <c r="C64" s="686"/>
       <c r="D64" s="645" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E64" s="81"/>
-      <c r="F64" s="83"/>
+      <c r="F64" s="83" t="s">
+        <v>459</v>
+      </c>
       <c r="G64" s="205"/>
       <c r="H64" s="284"/>
       <c r="I64" s="206"/>
@@ -17947,16 +17952,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>133350</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>1647825</xdr:colOff>
+                    <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>381000</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -17969,16 +17974,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>333375</xdr:colOff>
+                    <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>333375</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>133350</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -17991,16 +17996,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>133350</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>1647825</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>381000</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18013,16 +18018,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>333375</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>333375</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>133350</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18035,16 +18040,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>114300</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>1628775</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>361950</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18057,16 +18062,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>342900</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>352425</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>152400</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18079,16 +18084,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>114300</xdr:colOff>
-                    <xdr:row>16</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>1628775</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>361950</xdr:colOff>
-                    <xdr:row>18</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18101,16 +18106,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>16</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
-                    <xdr:row>18</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18123,16 +18128,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>104775</xdr:colOff>
-                    <xdr:row>22</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>1619250</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>114300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>352425</xdr:colOff>
-                    <xdr:row>23</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18145,16 +18150,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>85725</xdr:colOff>
-                    <xdr:row>22</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>409575</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>114300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>428625</xdr:colOff>
-                    <xdr:row>23</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18167,16 +18172,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
-                    <xdr:row>26</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>1609725</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>342900</xdr:colOff>
-                    <xdr:row>27</xdr:row>
-                    <xdr:rowOff>66675</xdr:rowOff>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18189,16 +18194,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>9</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
-                    <xdr:row>26</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>419100</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>438150</xdr:colOff>
-                    <xdr:row>27</xdr:row>
-                    <xdr:rowOff>66675</xdr:rowOff>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18211,16 +18216,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>114300</xdr:colOff>
-                    <xdr:row>36</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>1628775</xdr:colOff>
+                    <xdr:row>33</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>361950</xdr:colOff>
-                    <xdr:row>37</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>35</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18233,16 +18238,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>36</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>33</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>11</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
-                    <xdr:row>37</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>133350</xdr:colOff>
+                    <xdr:row>35</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18255,16 +18260,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>114300</xdr:colOff>
-                    <xdr:row>42</xdr:row>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>1628775</xdr:colOff>
+                    <xdr:row>40</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>361950</xdr:colOff>
-                    <xdr:row>43</xdr:row>
-                    <xdr:rowOff>76200</xdr:rowOff>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>40</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18277,16 +18282,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>114300</xdr:colOff>
-                    <xdr:row>44</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>1628775</xdr:colOff>
+                    <xdr:row>40</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>361950</xdr:colOff>
-                    <xdr:row>45</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>43</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18299,16 +18304,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>114300</xdr:colOff>
-                    <xdr:row>46</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>1628775</xdr:colOff>
+                    <xdr:row>43</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>361950</xdr:colOff>
-                    <xdr:row>47</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>44</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18321,16 +18326,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>42</xdr:row>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>40</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>11</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
-                    <xdr:row>43</xdr:row>
-                    <xdr:rowOff>76200</xdr:rowOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>152400</xdr:colOff>
+                    <xdr:row>40</xdr:row>
+                    <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18343,16 +18348,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>44</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>40</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>11</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
-                    <xdr:row>45</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>152400</xdr:colOff>
+                    <xdr:row>43</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18365,16 +18370,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>46</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>43</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>11</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
-                    <xdr:row>47</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>152400</xdr:colOff>
+                    <xdr:row>44</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18388,15 +18393,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>1295400</xdr:colOff>
-                    <xdr:row>66</xdr:row>
+                    <xdr:colOff>1152525</xdr:colOff>
+                    <xdr:row>61</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1133475</xdr:colOff>
-                    <xdr:row>66</xdr:row>
-                    <xdr:rowOff>314325</xdr:rowOff>
+                    <xdr:colOff>895350</xdr:colOff>
+                    <xdr:row>63</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18409,16 +18414,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>114300</xdr:colOff>
-                    <xdr:row>30</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>1628775</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>361950</xdr:colOff>
-                    <xdr:row>31</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18431,16 +18436,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>30</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>11</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
-                    <xdr:row>31</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>133350</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18453,16 +18458,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>123825</xdr:colOff>
-                    <xdr:row>32</xdr:row>
-                    <xdr:rowOff>66675</xdr:rowOff>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>1638300</xdr:colOff>
+                    <xdr:row>30</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>371475</xdr:colOff>
-                    <xdr:row>34</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18475,16 +18480,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
-                    <xdr:row>32</xdr:row>
-                    <xdr:rowOff>76200</xdr:rowOff>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>30</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>11</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>34</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>32</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
